--- a/biology/Botanique/Fumariaceae/Fumariaceae.xlsx
+++ b/biology/Botanique/Fumariaceae/Fumariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fumariacées constituent une famille de plantes dicotylédones qui comprend 450 espèces réparties en une quinzaine de genres.
 En France, on peut citer les genres :
@@ -517,9 +529,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Fumaria, dérivé du latin fumus terrae (fumée de terre), en référence au feuillage glauque et élégant de ce genre qui semble sortir de la terre comme une fumée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Fumaria, dérivé du latin fumus terrae (fumée de terre), en référence au feuillage glauque et élégant de ce genre qui semble sortir de la terre comme une fumée.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification classique de Cronquist (1981)[2] cette famille fait partie de l'ordre des Papaverales.  
-En classification phylogénétique APG II (2003)[3] les Hypecoaceae sont intégrées à cette famille (soit 15 espèces du genre Hypecoum L.), et celle-ci fait partie de l'ordre des  Ranunculales.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille des Papaveraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification classique de Cronquist (1981) cette famille fait partie de l'ordre des Papaverales.  
+En classification phylogénétique APG II (2003) les Hypecoaceae sont intégrées à cette famille (soit 15 espèces du genre Hypecoum L.), et celle-ci fait partie de l'ordre des  Ranunculales.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille des Papaveraceae.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification classique de Cronquist (1981)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification classique de Cronquist (1981) :
 Adlumia (en) Raf. ex DC.
 Capnoides (en)
 Ceratocapnos
